--- a/Sample/初始数据.xlsx
+++ b/Sample/初始数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A614BEDC-7170-41FA-9086-1D2D81FD76A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B0D10-0F77-4C71-A0B3-1823399617E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="班级" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>科目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,45 +197,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Math</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Politics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Listening</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Study</t>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -337,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -355,6 +412,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,8 +751,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>55</v>
+      <c r="A2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -738,8 +798,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>57</v>
+      <c r="A3" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -785,8 +845,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>56</v>
+      <c r="A4" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -832,7 +892,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="1"/>
@@ -859,7 +919,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="1"/>
@@ -886,7 +946,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="1"/>
@@ -913,8 +973,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>58</v>
+      <c r="A8" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>35</v>
@@ -952,8 +1012,8 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>59</v>
+      <c r="A9" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>41</v>
@@ -991,8 +1051,8 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>60</v>
+      <c r="A10" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>47</v>
@@ -1030,8 +1090,8 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>64</v>
+      <c r="A11" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>51</v>
@@ -1085,129 +1145,302 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0D5E29-7534-4F84-A7E5-D1BB31980D5F}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
